--- a/biology/Microbiologie/Methylobacterium/Methylobacterium.xlsx
+++ b/biology/Microbiologie/Methylobacterium/Methylobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Methylobacterium est un genre de bactéries de la famille des Methylobacteriaceae dans la classe des Alphaproteobacteria.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (6 janvier 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (6 janvier 2024) :
 Methylobacterium adhaesivum Gallego et al. 2006
 Methylobacterium aerolatum Weon et al. 2008
 Methylobacterium ajmalii Bijlani et al. 2021
@@ -618,12 +634,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Methylobacterium Patt (d) et al., 1976[1].
-L'espèce type est : Methylobacterium organophilum Patt et al., 1976[1].
-Étymologie
-L'étymologie du nom de ce genre est la suivante : Me.thy.lo.bac.te.ri.um. N.L. neut. n. methylum, le radical methyl ; du français masc. n. méthyle ; du français masc. n. méthylène ; du grec neut. n. methy, vin ; du grec fem. n. hylê, bois ; N.L. neut. n. methyl, appartenant au radical methyl ; N.L. neut. n. bacterium, bâtonnet, en biologie, une bactérie (appelée ainsi car les premières observées avaient la forme de bâtonnet) ; N.L. neut. n. Methylobacterium, la bactérie methyl[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Methylobacterium Patt (d) et al., 1976.
+L'espèce type est : Methylobacterium organophilum Patt et al., 1976.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Methylobacterium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Methylobacterium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de ce genre est la suivante : Me.thy.lo.bac.te.ri.um. N.L. neut. n. methylum, le radical methyl ; du français masc. n. méthyle ; du français masc. n. méthylène ; du grec neut. n. methy, vin ; du grec fem. n. hylê, bois ; N.L. neut. n. methyl, appartenant au radical methyl ; N.L. neut. n. bacterium, bâtonnet, en biologie, une bactérie (appelée ainsi car les premières observées avaient la forme de bâtonnet) ; N.L. neut. n. Methylobacterium, la bactérie methyl.
 </t>
         </is>
       </c>
